--- a/biology/Médecine/1622_en_santé_et_médecine/1622_en_santé_et_médecine.xlsx
+++ b/biology/Médecine/1622_en_santé_et_médecine/1622_en_santé_et_médecine.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F8"/>
+  <dimension ref="A1:H8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>1622_en_sant%C3%A9_et_m%C3%A9decine</t>
+          <t>1622_en_santé_et_médecine</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Cet article présente les faits marquants de l'année 1622 en santé et médecine.
 </t>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>1622_en_sant%C3%A9_et_m%C3%A9decine</t>
+          <t>1622_en_santé_et_médecine</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,10 +523,12 @@
           <t>Événements</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>23 juillet : Gaspare Aselli (v. 1581-1626), chirurgien et anatomiste italien, découvre les chylifères, qu'il nomme « vaisseaux lactés » en raison de l'aspect laiteux qu'ils présentent lors de la digestion des aliments[1], découverte qui sera publiée à titre posthume, en 1627[2], sous le titre de De lactibus sive lacteis venis[3].
-« Le Parlement de Provence [ne permet plus le] relâchement des navires provenant du Levant que dans les ports de Marseille et de Toulon, qui sont les seuls à être équipés de lazarets », celui de Toulon venant d'ouvrir[4].</t>
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>23 juillet : Gaspare Aselli (v. 1581-1626), chirurgien et anatomiste italien, découvre les chylifères, qu'il nomme « vaisseaux lactés » en raison de l'aspect laiteux qu'ils présentent lors de la digestion des aliments, découverte qui sera publiée à titre posthume, en 1627, sous le titre de De lactibus sive lacteis venis.
+« Le Parlement de Provence [ne permet plus le] relâchement des navires provenant du Levant que dans les ports de Marseille et de Toulon, qui sont les seuls à être équipés de lazarets », celui de Toulon venant d'ouvrir.</t>
         </is>
       </c>
     </row>
@@ -524,7 +538,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>1622_en_sant%C3%A9_et_m%C3%A9decine</t>
+          <t>1622_en_santé_et_médecine</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -542,12 +556,14 @@
           <t>Fondations</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>Fondation de l'Œuvre de la Miséricorde par la congrégation laïque des Dames de la Miséricorde de Montpellier[5].
-L'hôpital de la Charité de Lyon « ouvre ses portes aux premiers pensionnaires[6] ».
-« Une chaire de chimie, la première en France, [est] créée à la faculté de médecine de Montpellier[7]. »
-Ouverture du lazaret de Toulon[4].</t>
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Fondation de l'Œuvre de la Miséricorde par la congrégation laïque des Dames de la Miséricorde de Montpellier.
+L'hôpital de la Charité de Lyon « ouvre ses portes aux premiers pensionnaires ».
+« Une chaire de chimie, la première en France, [est] créée à la faculté de médecine de Montpellier. »
+Ouverture du lazaret de Toulon.</t>
         </is>
       </c>
     </row>
@@ -557,7 +573,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>1622_en_sant%C3%A9_et_m%C3%A9decine</t>
+          <t>1622_en_santé_et_médecine</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -575,56 +591,58 @@
           <t>Publications</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>Bartolomeo Accursini, archiatre de Ravenne, fait paraître le premier volume de ses « traités et consultations médicales » (Tractatuum et consultationum medicinalium tomus prior[8]).
-Vincenzo Alsario della Croce (v. 1576 – apr. 1632), professeur de médecine pratique à la Sapienza, médecin et camérier particulier du pape Grégoire XV, publie son traité De Quaesitis per epistolam in arte medica[9].
-Johannes Assuerus Ampzing (de) (1559-1642), professeur de médecine à Rostock et médecin du duc de Mecklembourg, fait paraître son De hydrope[10]  (« De l'hydropisie »), une des « thèses défendues sous sa présidence et probablement rédigées par lui en tout ou en partie[11] ».
-Camillo Baldi (v. 1547 – 1634), professeur de logique et de métaphysique à Bologne, fait imprimer son Trattato come da una lettera missiva, si conoscano la natura e qualità dello scrivente, premier ouvrage connu de graphologie[12].
-Richard Banister (en) († 1626), ophtalmologiste anglais, praticien à Stamford dans le comté de Lincoln, fait suivre d'un Breviary of the eyes[13] la réédition du Treatise of one hundred and thirteen diseases of the eyes and eyelids[14], traduction anglaise par Anthony Hunton du Traité des maladies de l’œil[15] de Jacques Guillemeau.
-Marcus Banzer (de) (1592-1664), médecin allemand, fait paraître à Augsbourg son recueil d'ordonnances médicales sous le titre de Fabrica receptarum[16].
-Isodoro de Barreira († 1634 ?), frère de l'ordre du Christ, publie son ouvrage sur « les plantes, fleurs et fruits qui sont mentionnés dans les Écritures saintes[17],[18] ».
-Gaspard Bauhin (1560-1624), médecin et naturaliste suisse, publie une flore des environs de Bâle, qu'il intitule Catalogus plantarum circa Basileam sponte nascentium[19].
-Daniel Becker (1594-1655), professeur de médecine, originaire de Dantzig, fait paraître son Medicus microcosmicus[20],[21],[22].
-Basilius Besler, médecin, apothicaire et botaniste de Nuremberg, fait paraître la suite du catalogue illustré de sa collection de curiosités naturelles[23].
-Anton Günther Billich (1598-1640), « médecin chimiste antiparacelsiste allemand, archiatre du comte d'Oldenbourg[24] », publie en latin sa « réponse aux remarques d'un anonyme sur les « Aphorismes chimiatriques » » de son beau-père, Angelo Sala (1576-1637[25]).
-Sebastian Bloss, médecin allemand « qui fut pensionné par la ville d'Ulm, suivant Schenck (en) », fait imprimer à Tubingue une Disquisitio totius sceptisos anatomicae[26].
-Tomaso Boncore, docteur en philosophie, en médecine et en droit, fait paraître son traité De populari, horribili ac pestilenti gutturis affectione, ouvrage consacré à l'épidémie de diphtérie qui sévit alors dans le royaume de Naples[27].
-Christophe Cachet (1572-1624), écrivain et médecin, conseiller et archiatre de Lorraine, publie ses Épigrammes équestres[28], satire dirigée contre les alchimistes et les charlatans[29].
-Pietro Castelli (entre 1570 et 1575 – 1661), médecin et naturaliste italien[30], publie ses deux « lettres sur l'hellébore[31],[32] ».
-Juan de Castello, pharmacien et professeur de médecine à Cadix, publie sa Pharmacopoea, medicamenta in officinis pharmaceuticis usitata explicans[33].
-Sous le titre de Musaeum Francisci Calceolarii[34], les médecins Benedetto Ceruti († 1620) et Andrea Chiocco († 1624) éditent un catalogue « méticuleusement et admirablement illustré » du « musée » du pharmacien et botaniste italien Francesco Calzolari (1522-1609), cabinet de curiosités entretenu et développé par son arrière-petit-fils, également prénommé Francesco[35].
-Giacomo Ferrari propose ses « réflexions sur l'épidémie […] de fièvre à pétéchies » qui sévit alors dans la région de Mantoue[36].
-Henrich Flacht fait paraître à Bâle sa « méthode de guérison idiopathique et sympathique[37] ».
-Hermann Follin, professeur de médecine à Cologne, fait imprimer deux discours chez Gerhard Grevenbruch, l'un sur la fièvre à pétéchies, l'autre sur le rapport entre les théories chimique et hippocratique[38].
-Arnauld Gilles publie ses Fleurs de remèdes contre le mal de dents[39], où il rend compte de divers cas d’hémorragie consécutive à l'extraction d'une dent[40].
-Charles Guillemeau (1588-1656), fils de Jacques Guillemeau, chirurgien comme son père au service du roi Louis XIII, publie son commentaire des Aphorismes d’Hippocrate († 377 av. J.-C.[41]).
-Samuel Hafenreffer (1587-1660), professeur de médecine à Tubingue, place son traité de thérapeutique et de pharmacologie sous l'invocation de l'archange guérisseur Raphaël[42].
-Gregor Horst (1578-1636), proto-médecin de Hesse, publie son « Pronostic des fièvres », tiré des Prénotions de Cos, d'Hippocrate[43], ainsi qu'une édition augmentée de son ouvrage sur la dysenterie[44].
-Édition posthume, à Lunebourg, par Matthieu  Bacmeister (1580-1626), du quatrième volume[45] des « Œuvres médicales » (Opera medica), de François Joel (1508-1579[46],[47]).
-David Jouyse (fl. 1620-1622) publie sa virulente réponse au livre de Jean de Lampérière (1573-1651) paru en 1620 « sur le sujet de la peste[48],[49],[50] ».
-Johann Knyphe publie son « Confort des yeux » (Augen Trost), traité de médecine oculaire[51].
-Nicolas Abraham de La Framboisière (1560-1636) fait paraître trois ouvrages, l'un sur « les écoles de médecine[52],[53] », l'autre sur « la préparation des médicaments[54] » et le troisième sur « le traitement des fièvres[55] ».
-Sous le titre de L'Ombre de Nécrophore, vivant chartier de l'Hôtel-Dieu[56], Jean de Lampérière (1573-1651) répond violemment aux critiques que David Jouyse vient de lui adresser dans son Examen du livre de Lampérière[50].
-Gilles de L'Angélique, alchimiste, apothicaire et chirurgien, fait paraître un traité sur La Vraye Pierre philosophale de médecine[57].
-John Macollo (1576 ? – 1622), professeur de médecine chimique et médecin ordinaire de Jacques Stuart, fait paraitre à Londres un traité sur la syphilis[58].
-Publication posthume du Liber responsorum et consultationum medicinalium, d'Alessandro Massaria (1510-1598[59]).
-Benito Matamoros Vasquez Gallego, professeur de médecine à Osuna, commence à publier un « choix de thèses de médecine », dont le premier tome restera unique (Selectarum medicinae disputationum tomus I[60]).
-La traduction française des chapitres 1 à 8 du livre 4 du De gli errori popolari d'Italia[61] (1603) de Girolamo Mercurio (it) († 1615), par Jean de Gorris[62],[63] ou Jean Duret[64], est publiée à Paris chez Denys Langlois sous le titre de Discours de l'origine, des mœurs, fraudes et impostures des charlatans[66].
-Johann Neander (en) (1596 ? – 1630 ?), homme de lettres et médecin allemand, fait imprimer chez Isaac Elzevier sa « description medico-chirurgico-pharmaceutique du tabac[67] ».
-Tommaso Neri (it) (1560 ? – 1622 ?), publie son De Tyburtini aeris salubritate commentarius, « commentaire sur la salubrité de l'air de Tivoli[68] ».
-Alessandro Peccana, médecin de Vérone, fait paraître ses commentaires sur les propriétés médicinales de la « scandella[69] », c'est-à-dire de l'orge[70].
-François Pona, docteur en médecine de l'université de Padoue, publie un « Antidote bézoardique contre tous les poisons » (Antidotus bezoardica adversus omnia venena[71]).
-Pierre Potier ou de la Poterie (1587-1640), originaire d'Angers, établi à Bologne, fait paraître une « pharmacopée spagyrique » (Pharmacopoea spagirica[72],[73],[74]).
-Hubert Arnold Rietmakers, médecin brabançon, donne un traité sur la colique néphrétique et les calculs urinaires (Tractatus de nephritico dolore[75]).
-Francesco Rossi, médecin génois, fait paraître ses Nocturnae exercitationes in medicas historias[76], réflexions en latin sur l'histoire de la médecine[77].
-Angelo Sala fait suivre sa Chrysologia, traité contre l’or potable, d'Aphorismes chimiques critiqués la même année par un anonyme et aussitôt défendus par Anton Günther Billich (1598-1640), gendre de Sala[78].
-Édition posthume du traité sur la mélancolie (Dignotio et cura affectuum melancholicorum) du comosgraphe et historien espagnol Alonso de Santa Cruz (1505-1567) par son fils Antonio Ponce de Santa Cruz (en) (1561-1632), professeur à Valladolid et médecin du roi Philippe IV[79].
-Antonio Ponce de Santa Cruz (en) (1561-1632), professeur à Valladolid et archiatre du roi Philippe IV, fait imprimer à Madrid sa Philosophia Hippocratica[80], ainsi que, en un volume in-folio, des Opuscula medica et philosophica dont le dernier consiste dans l’édition du traité sur la mélancolie de son père, Alonso de Santa Cruz[81].
-Antonio Santorelli (1583-1653), professeur de médecine au gymnase de Naples, fait paraître son Antepraxis medica[82].
-Francesco Scacchi (1577-1656), médecin, originaire de Fabriano, praticien à Rome, donne son traité sur les boissons (De salubri potu dissertatio[83]).
-Devant la menace d'un retour de la peste dans le Milanais, et pour faire profiter de l'expérience qu'il a acquise lors de l'épisode de 1576, Ludovico Settala (1550-1633) reprend des écrits de jeunesse[84] sous le titre de De peste et pestiferis affectibus[85].
-Parution à Bâle d'une dissertation De philtris, d’Hector Zolicoffer, docteur de la faculté de médecine de Montpellier[86],[87].</t>
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Bartolomeo Accursini, archiatre de Ravenne, fait paraître le premier volume de ses « traités et consultations médicales » (Tractatuum et consultationum medicinalium tomus prior).
+Vincenzo Alsario della Croce (v. 1576 – apr. 1632), professeur de médecine pratique à la Sapienza, médecin et camérier particulier du pape Grégoire XV, publie son traité De Quaesitis per epistolam in arte medica.
+Johannes Assuerus Ampzing (de) (1559-1642), professeur de médecine à Rostock et médecin du duc de Mecklembourg, fait paraître son De hydrope  (« De l'hydropisie »), une des « thèses défendues sous sa présidence et probablement rédigées par lui en tout ou en partie ».
+Camillo Baldi (v. 1547 – 1634), professeur de logique et de métaphysique à Bologne, fait imprimer son Trattato come da una lettera missiva, si conoscano la natura e qualità dello scrivente, premier ouvrage connu de graphologie.
+Richard Banister (en) († 1626), ophtalmologiste anglais, praticien à Stamford dans le comté de Lincoln, fait suivre d'un Breviary of the eyes la réédition du Treatise of one hundred and thirteen diseases of the eyes and eyelids, traduction anglaise par Anthony Hunton du Traité des maladies de l’œil de Jacques Guillemeau.
+Marcus Banzer (de) (1592-1664), médecin allemand, fait paraître à Augsbourg son recueil d'ordonnances médicales sous le titre de Fabrica receptarum.
+Isodoro de Barreira († 1634 ?), frère de l'ordre du Christ, publie son ouvrage sur « les plantes, fleurs et fruits qui sont mentionnés dans les Écritures saintes, ».
+Gaspard Bauhin (1560-1624), médecin et naturaliste suisse, publie une flore des environs de Bâle, qu'il intitule Catalogus plantarum circa Basileam sponte nascentium.
+Daniel Becker (1594-1655), professeur de médecine, originaire de Dantzig, fait paraître son Medicus microcosmicus.
+Basilius Besler, médecin, apothicaire et botaniste de Nuremberg, fait paraître la suite du catalogue illustré de sa collection de curiosités naturelles.
+Anton Günther Billich (1598-1640), « médecin chimiste antiparacelsiste allemand, archiatre du comte d'Oldenbourg », publie en latin sa « réponse aux remarques d'un anonyme sur les « Aphorismes chimiatriques » » de son beau-père, Angelo Sala (1576-1637).
+Sebastian Bloss, médecin allemand « qui fut pensionné par la ville d'Ulm, suivant Schenck (en) », fait imprimer à Tubingue une Disquisitio totius sceptisos anatomicae.
+Tomaso Boncore, docteur en philosophie, en médecine et en droit, fait paraître son traité De populari, horribili ac pestilenti gutturis affectione, ouvrage consacré à l'épidémie de diphtérie qui sévit alors dans le royaume de Naples.
+Christophe Cachet (1572-1624), écrivain et médecin, conseiller et archiatre de Lorraine, publie ses Épigrammes équestres, satire dirigée contre les alchimistes et les charlatans.
+Pietro Castelli (entre 1570 et 1575 – 1661), médecin et naturaliste italien, publie ses deux « lettres sur l'hellébore, ».
+Juan de Castello, pharmacien et professeur de médecine à Cadix, publie sa Pharmacopoea, medicamenta in officinis pharmaceuticis usitata explicans.
+Sous le titre de Musaeum Francisci Calceolarii, les médecins Benedetto Ceruti († 1620) et Andrea Chiocco († 1624) éditent un catalogue « méticuleusement et admirablement illustré » du « musée » du pharmacien et botaniste italien Francesco Calzolari (1522-1609), cabinet de curiosités entretenu et développé par son arrière-petit-fils, également prénommé Francesco.
+Giacomo Ferrari propose ses « réflexions sur l'épidémie […] de fièvre à pétéchies » qui sévit alors dans la région de Mantoue.
+Henrich Flacht fait paraître à Bâle sa « méthode de guérison idiopathique et sympathique ».
+Hermann Follin, professeur de médecine à Cologne, fait imprimer deux discours chez Gerhard Grevenbruch, l'un sur la fièvre à pétéchies, l'autre sur le rapport entre les théories chimique et hippocratique.
+Arnauld Gilles publie ses Fleurs de remèdes contre le mal de dents, où il rend compte de divers cas d’hémorragie consécutive à l'extraction d'une dent.
+Charles Guillemeau (1588-1656), fils de Jacques Guillemeau, chirurgien comme son père au service du roi Louis XIII, publie son commentaire des Aphorismes d’Hippocrate († 377 av. J.-C.).
+Samuel Hafenreffer (1587-1660), professeur de médecine à Tubingue, place son traité de thérapeutique et de pharmacologie sous l'invocation de l'archange guérisseur Raphaël.
+Gregor Horst (1578-1636), proto-médecin de Hesse, publie son « Pronostic des fièvres », tiré des Prénotions de Cos, d'Hippocrate, ainsi qu'une édition augmentée de son ouvrage sur la dysenterie.
+Édition posthume, à Lunebourg, par Matthieu  Bacmeister (1580-1626), du quatrième volume des « Œuvres médicales » (Opera medica), de François Joel (1508-1579,).
+David Jouyse (fl. 1620-1622) publie sa virulente réponse au livre de Jean de Lampérière (1573-1651) paru en 1620 « sur le sujet de la peste ».
+Johann Knyphe publie son « Confort des yeux » (Augen Trost), traité de médecine oculaire.
+Nicolas Abraham de La Framboisière (1560-1636) fait paraître trois ouvrages, l'un sur « les écoles de médecine, », l'autre sur « la préparation des médicaments » et le troisième sur « le traitement des fièvres ».
+Sous le titre de L'Ombre de Nécrophore, vivant chartier de l'Hôtel-Dieu, Jean de Lampérière (1573-1651) répond violemment aux critiques que David Jouyse vient de lui adresser dans son Examen du livre de Lampérière.
+Gilles de L'Angélique, alchimiste, apothicaire et chirurgien, fait paraître un traité sur La Vraye Pierre philosophale de médecine.
+John Macollo (1576 ? – 1622), professeur de médecine chimique et médecin ordinaire de Jacques Stuart, fait paraitre à Londres un traité sur la syphilis.
+Publication posthume du Liber responsorum et consultationum medicinalium, d'Alessandro Massaria (1510-1598).
+Benito Matamoros Vasquez Gallego, professeur de médecine à Osuna, commence à publier un « choix de thèses de médecine », dont le premier tome restera unique (Selectarum medicinae disputationum tomus I).
+La traduction française des chapitres 1 à 8 du livre 4 du De gli errori popolari d'Italia (1603) de Girolamo Mercurio (it) († 1615), par Jean de Gorris, ou Jean Duret, est publiée à Paris chez Denys Langlois sous le titre de Discours de l'origine, des mœurs, fraudes et impostures des charlatans.
+Johann Neander (en) (1596 ? – 1630 ?), homme de lettres et médecin allemand, fait imprimer chez Isaac Elzevier sa « description medico-chirurgico-pharmaceutique du tabac ».
+Tommaso Neri (it) (1560 ? – 1622 ?), publie son De Tyburtini aeris salubritate commentarius, « commentaire sur la salubrité de l'air de Tivoli ».
+Alessandro Peccana, médecin de Vérone, fait paraître ses commentaires sur les propriétés médicinales de la « scandella », c'est-à-dire de l'orge.
+François Pona, docteur en médecine de l'université de Padoue, publie un « Antidote bézoardique contre tous les poisons » (Antidotus bezoardica adversus omnia venena).
+Pierre Potier ou de la Poterie (1587-1640), originaire d'Angers, établi à Bologne, fait paraître une « pharmacopée spagyrique » (Pharmacopoea spagirica).
+Hubert Arnold Rietmakers, médecin brabançon, donne un traité sur la colique néphrétique et les calculs urinaires (Tractatus de nephritico dolore).
+Francesco Rossi, médecin génois, fait paraître ses Nocturnae exercitationes in medicas historias, réflexions en latin sur l'histoire de la médecine.
+Angelo Sala fait suivre sa Chrysologia, traité contre l’or potable, d'Aphorismes chimiques critiqués la même année par un anonyme et aussitôt défendus par Anton Günther Billich (1598-1640), gendre de Sala.
+Édition posthume du traité sur la mélancolie (Dignotio et cura affectuum melancholicorum) du comosgraphe et historien espagnol Alonso de Santa Cruz (1505-1567) par son fils Antonio Ponce de Santa Cruz (en) (1561-1632), professeur à Valladolid et médecin du roi Philippe IV.
+Antonio Ponce de Santa Cruz (en) (1561-1632), professeur à Valladolid et archiatre du roi Philippe IV, fait imprimer à Madrid sa Philosophia Hippocratica, ainsi que, en un volume in-folio, des Opuscula medica et philosophica dont le dernier consiste dans l’édition du traité sur la mélancolie de son père, Alonso de Santa Cruz.
+Antonio Santorelli (1583-1653), professeur de médecine au gymnase de Naples, fait paraître son Antepraxis medica.
+Francesco Scacchi (1577-1656), médecin, originaire de Fabriano, praticien à Rome, donne son traité sur les boissons (De salubri potu dissertatio).
+Devant la menace d'un retour de la peste dans le Milanais, et pour faire profiter de l'expérience qu'il a acquise lors de l'épisode de 1576, Ludovico Settala (1550-1633) reprend des écrits de jeunesse sous le titre de De peste et pestiferis affectibus.
+Parution à Bâle d'une dissertation De philtris, d’Hector Zolicoffer, docteur de la faculté de médecine de Montpellier,.</t>
         </is>
       </c>
     </row>
@@ -634,7 +652,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>1622_en_sant%C3%A9_et_m%C3%A9decine</t>
+          <t>1622_en_santé_et_médecine</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -652,13 +670,15 @@
           <t>Personnalités</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>Fl. Jean Portays, maître chirurgien à Morannes, dans le Maine[88].
-Fl. René Béhigné, maître apothicaire à La Flèche dans le Maine[88].
-1612-1622 : fl. Johann Günther, auteur, en 1621, d'un manuel pour l'étude du traitement des maladies complexes, « exercices » tirés de la Méthode thérapeutique de Galien[89].
-1620-1622 : fl. David Jouyse, médecin de peste de la ville de Rouen, accusé par son confrère Jean de Lampérière « d'une méprise qui aurait entraîné la contamination de la demeure [d'un] pestiféré[50],[48],[90] ».
-1620-1622 : fl. Hector Zollicoffer, docteur en médecine de la faculté de Montpellier en 1620, et auteur d'une dissertation De philtris, publiée à Bâle par Jean-Jacques Genastius en 1622[86],[91].</t>
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>Fl. Jean Portays, maître chirurgien à Morannes, dans le Maine.
+Fl. René Béhigné, maître apothicaire à La Flèche dans le Maine.
+1612-1622 : fl. Johann Günther, auteur, en 1621, d'un manuel pour l'étude du traitement des maladies complexes, « exercices » tirés de la Méthode thérapeutique de Galien.
+1620-1622 : fl. David Jouyse, médecin de peste de la ville de Rouen, accusé par son confrère Jean de Lampérière « d'une méprise qui aurait entraîné la contamination de la demeure [d'un] pestiféré ».
+1620-1622 : fl. Hector Zollicoffer, docteur en médecine de la faculté de Montpellier en 1620, et auteur d'une dissertation De philtris, publiée à Bâle par Jean-Jacques Genastius en 1622,.</t>
         </is>
       </c>
     </row>
@@ -668,7 +688,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>1622_en_sant%C3%A9_et_m%C3%A9decine</t>
+          <t>1622_en_santé_et_médecine</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
@@ -686,14 +706,16 @@
           <t>Naissances</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>4 mai (bapt.) : Jean Pecquet (mort en 1674), médecin et anatomiste français[92], auteur, en 1651, d'Experimenta nova Anatomica[93] « où il décrit minutieusement sa découverte du canal thoracique et du réceptacle du chyle[94] ».
-31 juillet ? (bapt.) : Marie Pournin (morte en 1699), sage-femme, directrice de l'hôpital de Ville-Marie, futur Hôtel-Dieu  de Montréal, en l'absence de Jeanne Mance, sa fondatrice[95].
-24 septembre : Georg Händel (de) (mort en 1697), barbier chirurgien, père du compositeur Georg Friedrich Haendel[96].
-François Bayle (mort en 1709), professeur de médecine à Toulouse[97].
-Georges Hubert, dit le chevalier de Saint-Hubert (mort en 1701), « toucheur » dont le geste était censé protéger de la rage[98].
-Thomas Willis (mort en 1677), iatrochimiste, connu pour ses contributions à l'anatomie du cerveau[99].</t>
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>4 mai (bapt.) : Jean Pecquet (mort en 1674), médecin et anatomiste français, auteur, en 1651, d'Experimenta nova Anatomica « où il décrit minutieusement sa découverte du canal thoracique et du réceptacle du chyle ».
+31 juillet ? (bapt.) : Marie Pournin (morte en 1699), sage-femme, directrice de l'hôpital de Ville-Marie, futur Hôtel-Dieu  de Montréal, en l'absence de Jeanne Mance, sa fondatrice.
+24 septembre : Georg Händel (de) (mort en 1697), barbier chirurgien, père du compositeur Georg Friedrich Haendel.
+François Bayle (mort en 1709), professeur de médecine à Toulouse.
+Georges Hubert, dit le chevalier de Saint-Hubert (mort en 1701), « toucheur » dont le geste était censé protéger de la rage.
+Thomas Willis (mort en 1677), iatrochimiste, connu pour ses contributions à l'anatomie du cerveau.</t>
         </is>
       </c>
     </row>
@@ -703,7 +725,7 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>1622_en_sant%C3%A9_et_m%C3%A9decine</t>
+          <t>1622_en_santé_et_médecine</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
@@ -721,17 +743,19 @@
           <t>Décès</t>
         </is>
       </c>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t>Giulio Jasolino (it) (né en 1538), anatomiste et hydrologue italien, auteur du De' rimedi naturali che sono nell'isola Pithaecusa, hoggi detta Ischia (1588), premier traité d'hydrologie médicale[100].
-John Macollo (né vers 1576), professeur de médecine chimique et médecin ordinaire de Jacques Stuart, auteur d'un traité sur la syphilis[58].
-Michel Maier (né en 1569), médecin et alchimiste allemand, conseiller de l'empereur Rodolphe II[101].
-Jacques de Marque (né en 1569), chirurgien français[102].
-Francesco Plazzoni (né en 1552 ?), chirurgien et anatomiste italien, auteur de traités sur les blessures par arme à feu (1618) et sur les organes de la génération (1621[103]).
-Bernardo Vargas Machuca (es) (né en 1557), homme de guerre, naturaliste et vétérinaire espagnol, auteur en 1599 d'une Milicia y descripción de las Indias[104], véritable « guide du conquistador » qui traite, entre autres sujets, des connaissances médicales et des remèdes nécessaires en campagne[105].
-Ercole Zecchi (né à une date inconnue), docteur en médecine de l'université de Bologne[106] ; éditeur, en 1613, d'un traité des urines (De urinis brevis et pulcherrima methodus) rédigé par son oncle Giovanni Zecchi (1533-1601[107]).
-1622 ? :  Thoma de Neris (né vers 1560), auteur d'un « commentaire sur la salubrité de l'air de Tivoli »  (De Tyburtini aeris salubritate commentarius) paru en 1622[108].
-1622 ou 1624 : Jean Auvray (né en 1580 ou  1590), chirurgien et poète rouennais[109].</t>
+      <c r="F8" t="inlineStr"/>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>Giulio Jasolino (it) (né en 1538), anatomiste et hydrologue italien, auteur du De' rimedi naturali che sono nell'isola Pithaecusa, hoggi detta Ischia (1588), premier traité d'hydrologie médicale.
+John Macollo (né vers 1576), professeur de médecine chimique et médecin ordinaire de Jacques Stuart, auteur d'un traité sur la syphilis.
+Michel Maier (né en 1569), médecin et alchimiste allemand, conseiller de l'empereur Rodolphe II.
+Jacques de Marque (né en 1569), chirurgien français.
+Francesco Plazzoni (né en 1552 ?), chirurgien et anatomiste italien, auteur de traités sur les blessures par arme à feu (1618) et sur les organes de la génération (1621).
+Bernardo Vargas Machuca (es) (né en 1557), homme de guerre, naturaliste et vétérinaire espagnol, auteur en 1599 d'une Milicia y descripción de las Indias, véritable « guide du conquistador » qui traite, entre autres sujets, des connaissances médicales et des remèdes nécessaires en campagne.
+Ercole Zecchi (né à une date inconnue), docteur en médecine de l'université de Bologne ; éditeur, en 1613, d'un traité des urines (De urinis brevis et pulcherrima methodus) rédigé par son oncle Giovanni Zecchi (1533-1601).
+1622 ? :  Thoma de Neris (né vers 1560), auteur d'un « commentaire sur la salubrité de l'air de Tivoli »  (De Tyburtini aeris salubritate commentarius) paru en 1622.
+1622 ou 1624 : Jean Auvray (né en 1580 ou  1590), chirurgien et poète rouennais.</t>
         </is>
       </c>
     </row>
